--- a/config/eda - Copia.xlsx
+++ b/config/eda - Copia.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72364bdb7555e539/Documentos/GitHub/eda-to-excel/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{E5CF2E38-CAA7-474B-B830-05407AF69EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C8F4ABB-5845-4CDE-9EAF-3816D90E1F9D}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_B0C1ADBFEF3FCC7F4BD99556212B0A51B87AE459" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B73439C6-443C-4CB4-9BE4-41BFFD005797}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1150" windowWidth="15820" windowHeight="9170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="310" yWindow="890" windowWidth="15820" windowHeight="9170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tables" sheetId="3" r:id="rId1"/>
-    <sheet name="fields" sheetId="4" r:id="rId2"/>
+    <sheet name="tables" sheetId="1" r:id="rId1"/>
+    <sheet name="fields" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="96">
   <si>
     <t>table</t>
   </si>
@@ -35,6 +35,9 @@
     <t>type</t>
   </si>
   <si>
+    <t>file_size</t>
+  </si>
+  <si>
     <t>lines</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
     <t>7.55 KB</t>
   </si>
   <si>
+    <t>content types</t>
+  </si>
+  <si>
     <t>field</t>
   </si>
   <si>
@@ -128,78 +134,129 @@
     <t>negative</t>
   </si>
   <si>
+    <t>uniques</t>
+  </si>
+  <si>
+    <t>regex</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>nulls</t>
+  </si>
+  <si>
+    <t>blanks</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
     <t>unique</t>
   </si>
   <si>
-    <t>regex</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>uniques</t>
+    <t>top</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>Q1(25%)</t>
+  </si>
+  <si>
+    <t>Q2(50%</t>
+  </si>
+  <si>
+    <t>Q3(75%)</t>
   </si>
   <si>
     <t>valid_format</t>
   </si>
   <si>
+    <t>valid_on_list</t>
+  </si>
+  <si>
+    <t>valid_on_range</t>
+  </si>
+  <si>
     <t>coenti</t>
   </si>
   <si>
     <t>Código da empresas seguradoras</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>teste</t>
+    <t>Sergio</t>
   </si>
   <si>
     <t>5000;5400</t>
   </si>
   <si>
+    <t>noenti</t>
+  </si>
+  <si>
+    <t>Nome da empresa</t>
+  </si>
+  <si>
+    <t>coramo</t>
+  </si>
+  <si>
+    <t>Código do ramo</t>
+  </si>
+  <si>
+    <t>1101;1601;2201</t>
+  </si>
+  <si>
+    <t>noramo</t>
+  </si>
+  <si>
+    <t>Nome dro ramo</t>
+  </si>
+  <si>
+    <t>0111 - INCĘNDIO TRADICIONAL(RUN OFF)</t>
+  </si>
+  <si>
+    <t>2293 - VIDA EFPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no number</t>
+  </si>
+  <si>
+    <t>no number</t>
+  </si>
+  <si>
     <t>no format</t>
   </si>
   <si>
     <t>no list</t>
   </si>
   <si>
-    <t>36 (4.85%)</t>
-  </si>
-  <si>
-    <t>noenti</t>
-  </si>
-  <si>
-    <t>Nome da empresa</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>no range</t>
-  </si>
-  <si>
-    <t>coramo</t>
-  </si>
-  <si>
-    <t>Código do ramo</t>
-  </si>
-  <si>
-    <t>1101;1601;2201</t>
-  </si>
-  <si>
-    <t>3 (1.86%)</t>
-  </si>
-  <si>
-    <t>noramo</t>
-  </si>
-  <si>
-    <t>Nome dro ramo</t>
-  </si>
-  <si>
     <t>Código da Empresa</t>
   </si>
   <si>
@@ -218,18 +275,12 @@
     <t>^(?:19[7-9]\d|20[0-4]\d|2050)(?:0[1-9]|1[0-2])$</t>
   </si>
   <si>
-    <t>97 (97.0%)</t>
-  </si>
-  <si>
     <t>premio_direto</t>
   </si>
   <si>
     <t>Prêmio Direto (R$)</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>premio_ganho</t>
   </si>
   <si>
@@ -258,63 +309,6 @@
   </si>
   <si>
     <t>Despesa Comercial (R$)</t>
-  </si>
-  <si>
-    <t>file_size</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>freq</t>
-  </si>
-  <si>
-    <t>not-null</t>
-  </si>
-  <si>
-    <t>valid_on_list</t>
-  </si>
-  <si>
-    <t>valid_on_range</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>expected_type</t>
-  </si>
-  <si>
-    <t>content types</t>
-  </si>
-  <si>
-    <t>nulls</t>
-  </si>
-  <si>
-    <t>blanks</t>
   </si>
 </sst>
 </file>
@@ -479,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -502,19 +496,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -527,16 +545,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -547,13 +562,15 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,40 +578,27 @@
   <dxfs count="4">
     <dxf>
       <font>
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.14990691854609822"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.14990691854609822"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.14990691854609822"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
         <color rgb="FFF48C06"/>
       </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF52B69A"/>
-      <color rgb="FFE7ECEF"/>
-      <color rgb="FFF48C06"/>
-      <color rgb="FFFFCA3A"/>
-      <color rgb="FFF1FAEE"/>
-      <color rgb="FFFFB5A7"/>
-      <color rgb="FFA8DADC"/>
-      <color rgb="FF76C893"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -890,7 +894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C349D5F4-9E74-467C-984D-75989B7A8E58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -899,16 +903,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -925,39 +929,39 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="7">
         <v>743</v>
@@ -966,30 +970,30 @@
         <v>5</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="7">
         <v>161</v>
@@ -998,30 +1002,30 @@
         <v>2</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="7">
         <v>100</v>
@@ -1030,13 +1034,13 @@
         <v>21</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1045,23 +1049,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447E2A8B-6556-437E-ADE8-4D9E771A7ED8}">
-  <dimension ref="A1:AM15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="4.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
@@ -1078,1097 +1082,1422 @@
     <col min="19" max="19" width="5.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="36" width="4.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.7265625" style="2"/>
+    <col min="26" max="26" width="35.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="35.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.81640625" style="2" customWidth="1"/>
+    <col min="40" max="16384" width="4.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="T1" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="25"/>
     </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="16" t="s">
+    <row r="2" spans="1:38" s="1" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="D2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="M2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" s="24" t="s">
+      <c r="R2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="20" t="s">
+      <c r="V2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA2" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB2" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC2" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF2" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH2" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI2" s="18" t="s">
-        <v>91</v>
+      <c r="AD2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI2" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="AJ2" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK2" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL2" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM2" s="19" t="s">
-        <v>89</v>
+        <v>58</v>
+      </c>
+      <c r="AK2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL2" s="18" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="1" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>41</v>
+    <row r="3" spans="1:38" s="1" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="R3" s="8"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="14" t="s">
+      <c r="S3" s="20"/>
+      <c r="T3" s="20">
+        <v>2</v>
+      </c>
+      <c r="U3" s="20">
+        <v>1</v>
+      </c>
+      <c r="V3" s="20">
+        <v>737</v>
+      </c>
+      <c r="W3" s="20">
+        <v>1</v>
+      </c>
+      <c r="X3" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" s="1" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AL3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM3" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" s="1" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM4" s="14" t="s">
-        <v>52</v>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20">
+        <v>0</v>
+      </c>
+      <c r="U4" s="20">
+        <v>0</v>
+      </c>
+      <c r="V4" s="20">
+        <v>0</v>
+      </c>
+      <c r="W4" s="20">
+        <v>0</v>
+      </c>
+      <c r="X4" s="20">
+        <v>743</v>
+      </c>
+      <c r="Y4" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="13">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>53</v>
+    <row r="5" spans="1:38" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20">
+        <v>0</v>
+      </c>
+      <c r="U5" s="20">
+        <v>0</v>
+      </c>
+      <c r="V5" s="20">
+        <v>161</v>
+      </c>
+      <c r="W5" s="20">
+        <v>0</v>
+      </c>
+      <c r="X5" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AL5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM5" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM6" s="14" t="s">
-        <v>52</v>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20">
+        <v>0</v>
+      </c>
+      <c r="U6" s="20">
+        <v>0</v>
+      </c>
+      <c r="V6" s="20">
+        <v>0</v>
+      </c>
+      <c r="W6" s="20">
+        <v>0</v>
+      </c>
+      <c r="X6" s="20">
+        <v>161</v>
+      </c>
+      <c r="Y6" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA6" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB6" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD6" s="22">
+        <v>161</v>
+      </c>
+      <c r="AE6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF6" s="22">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL6" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>41</v>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM7" s="14" t="s">
-        <v>52</v>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20">
+        <v>0</v>
+      </c>
+      <c r="U7" s="20">
+        <v>0</v>
+      </c>
+      <c r="V7" s="20">
+        <v>100</v>
+      </c>
+      <c r="W7" s="20">
+        <v>0</v>
+      </c>
+      <c r="X7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="13">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>53</v>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM8" s="14" t="s">
-        <v>52</v>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20">
+        <v>0</v>
+      </c>
+      <c r="U8" s="20">
+        <v>0</v>
+      </c>
+      <c r="V8" s="20">
+        <v>100</v>
+      </c>
+      <c r="W8" s="20">
+        <v>0</v>
+      </c>
+      <c r="X8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="13">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>61</v>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM9" s="14" t="s">
-        <v>52</v>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20">
+        <v>0</v>
+      </c>
+      <c r="U9" s="20">
+        <v>1</v>
+      </c>
+      <c r="V9" s="20">
+        <v>99</v>
+      </c>
+      <c r="W9" s="20">
+        <v>0</v>
+      </c>
+      <c r="X9" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="13">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>66</v>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM10" s="14" t="s">
-        <v>52</v>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20">
+        <v>0</v>
+      </c>
+      <c r="U10" s="20">
+        <v>0</v>
+      </c>
+      <c r="V10" s="20">
+        <v>91</v>
+      </c>
+      <c r="W10" s="20">
+        <v>0</v>
+      </c>
+      <c r="X10" s="20">
+        <v>9</v>
+      </c>
+      <c r="Y10" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="13">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>69</v>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM11" s="14" t="s">
-        <v>52</v>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20">
+        <v>0</v>
+      </c>
+      <c r="U11" s="20">
+        <v>0</v>
+      </c>
+      <c r="V11" s="20">
+        <v>81</v>
+      </c>
+      <c r="W11" s="20">
+        <v>0</v>
+      </c>
+      <c r="X11" s="20">
+        <v>19</v>
+      </c>
+      <c r="Y11" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="13">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>71</v>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM12" s="14" t="s">
-        <v>52</v>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20">
+        <v>0</v>
+      </c>
+      <c r="U12" s="20">
+        <v>0</v>
+      </c>
+      <c r="V12" s="20">
+        <v>91</v>
+      </c>
+      <c r="W12" s="20">
+        <v>0</v>
+      </c>
+      <c r="X12" s="20">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>73</v>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM13" s="14" t="s">
-        <v>52</v>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20">
+        <v>0</v>
+      </c>
+      <c r="U13" s="20">
+        <v>0</v>
+      </c>
+      <c r="V13" s="20">
+        <v>93</v>
+      </c>
+      <c r="W13" s="20">
+        <v>0</v>
+      </c>
+      <c r="X13" s="20">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>75</v>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM14" s="14" t="s">
-        <v>52</v>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20">
+        <v>0</v>
+      </c>
+      <c r="U14" s="20">
+        <v>0</v>
+      </c>
+      <c r="V14" s="20">
+        <v>81</v>
+      </c>
+      <c r="W14" s="20">
+        <v>0</v>
+      </c>
+      <c r="X14" s="20">
+        <v>19</v>
+      </c>
+      <c r="Y14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>77</v>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM15" s="14" t="s">
-        <v>52</v>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20">
+        <v>0</v>
+      </c>
+      <c r="U15" s="20">
+        <v>0</v>
+      </c>
+      <c r="V15" s="20">
+        <v>83</v>
+      </c>
+      <c r="W15" s="20">
+        <v>0</v>
+      </c>
+      <c r="X15" s="20">
+        <v>17</v>
+      </c>
+      <c r="Y15" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>
-  <conditionalFormatting sqref="AK3:AK15">
+  <conditionalFormatting sqref="AJ3:AJ15">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="notEqual">
       <formula>"no format"</formula>
     </cfRule>
@@ -2176,22 +2505,22 @@
       <formula>"no format"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL3:AL15">
+  <conditionalFormatting sqref="AK3:AK15">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"no list"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM3:AM15">
+  <conditionalFormatting sqref="AL3:AL15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"no range"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H15 K3:O15" xr:uid="{DD7F43A1-B67D-4070-949A-F25D972F8005}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H15 K3:O15" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>